--- a/database/seeders/data/WORKERS.xlsx
+++ b/database/seeders/data/WORKERS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedmiBook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\crm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9D167-26CB-4BEB-9D4B-A113F540E095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C64CB7-760A-4C84-95E4-621164464F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CAA1FB6A-10F9-4400-B2D7-7280B19EDA02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CAA1FB6A-10F9-4400-B2D7-7280B19EDA02}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="135">
   <si>
     <t>ulyana.kundo@gmail.com</t>
   </si>
@@ -368,13 +368,79 @@
     <t>+972 55-944-3382</t>
   </si>
   <si>
-    <t>LENG</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>RUS</t>
+    <t>1st day</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>cleaner</t>
+  </si>
+  <si>
+    <t>01.04.2021</t>
+  </si>
+  <si>
+    <t>01.08.2021</t>
+  </si>
+  <si>
+    <t>01.07.2022</t>
+  </si>
+  <si>
+    <t>22.08.2023</t>
+  </si>
+  <si>
+    <t>13.09.2023</t>
+  </si>
+  <si>
+    <t>06.12.2023</t>
+  </si>
+  <si>
+    <t>30.01.2024</t>
+  </si>
+  <si>
+    <t>01.02.2024</t>
+  </si>
+  <si>
+    <t>leng</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>11.02.2024</t>
+  </si>
+  <si>
+    <t>14.03.2024</t>
+  </si>
+  <si>
+    <t>01.03.2024</t>
+  </si>
+  <si>
+    <t>14.04.2024</t>
+  </si>
+  <si>
+    <t>01.05.2024</t>
+  </si>
+  <si>
+    <t>15.04.2024</t>
+  </si>
+  <si>
+    <t>08.05.2024</t>
+  </si>
+  <si>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>15.05.2024</t>
+  </si>
+  <si>
+    <t>Уборщица</t>
+  </si>
+  <si>
+    <t>payment</t>
   </si>
 </sst>
 </file>
@@ -774,20 +840,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EB3F3B-7D20-419E-8A99-D53D842BB5D6}">
-  <dimension ref="D1:Q31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
       <c r="D1" s="6" t="s">
         <v>110</v>
       </c>
@@ -831,9 +906,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -863,9 +947,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -895,9 +988,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -927,9 +1029,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -956,9 +1067,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -988,9 +1108,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1023,9 +1152,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1055,9 +1193,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1087,9 +1234,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1116,9 +1272,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
@@ -1148,9 +1313,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
@@ -1180,9 +1354,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1212,9 +1395,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1241,9 +1433,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
@@ -1270,9 +1471,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -1296,9 +1506,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -1328,9 +1547,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -1360,9 +1588,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>111</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1401,9 +1629,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>111</v>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1433,9 +1661,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>111</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1471,8 +1699,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>112</v>
       </c>
       <c r="E23" t="s">
@@ -1509,8 +1737,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>112</v>
       </c>
       <c r="E24" t="s">
@@ -1541,9 +1769,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>111</v>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>112</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1573,9 +1801,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>111</v>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1611,9 +1839,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>111</v>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1643,8 +1871,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>112</v>
       </c>
       <c r="E28" t="s">
@@ -1681,8 +1909,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>112</v>
       </c>
       <c r="E29" t="s">
@@ -1719,8 +1947,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>112</v>
       </c>
       <c r="E30" t="s">
@@ -1754,8 +1982,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>112</v>
       </c>
       <c r="E31" t="s">
